--- a/natmiOut/OldD7/LR-pairs_lrc2p/Cxcl12-Cxcr4.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Cxcl12-Cxcr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Cxcr4</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>184.693097241481</v>
+        <v>198.977211</v>
       </c>
       <c r="H2">
-        <v>184.693097241481</v>
+        <v>596.9316329999999</v>
       </c>
       <c r="I2">
-        <v>0.4666431855336483</v>
+        <v>0.440791350614085</v>
       </c>
       <c r="J2">
-        <v>0.4666431855336483</v>
+        <v>0.4407913506140851</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>22.986405348307</v>
+        <v>23.66111866666667</v>
       </c>
       <c r="N2">
-        <v>22.986405348307</v>
+        <v>70.983356</v>
       </c>
       <c r="O2">
-        <v>0.09682269173287546</v>
+        <v>0.08861204511346259</v>
       </c>
       <c r="P2">
-        <v>0.09682269173287546</v>
+        <v>0.08861204511346259</v>
       </c>
       <c r="Q2">
-        <v>4245.430398226964</v>
+        <v>4708.023401433372</v>
       </c>
       <c r="R2">
-        <v>4245.430398226964</v>
+        <v>42372.21061290034</v>
       </c>
       <c r="S2">
-        <v>0.04518164930217143</v>
+        <v>0.0390594230462394</v>
       </c>
       <c r="T2">
-        <v>0.04518164930217143</v>
+        <v>0.03905942304623941</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>184.693097241481</v>
+        <v>198.977211</v>
       </c>
       <c r="H3">
-        <v>184.693097241481</v>
+        <v>596.9316329999999</v>
       </c>
       <c r="I3">
-        <v>0.4666431855336483</v>
+        <v>0.440791350614085</v>
       </c>
       <c r="J3">
-        <v>0.4666431855336483</v>
+        <v>0.4407913506140851</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>203.809550316743</v>
+        <v>0.1622346666666667</v>
       </c>
       <c r="N3">
-        <v>203.809550316743</v>
+        <v>0.486704</v>
       </c>
       <c r="O3">
-        <v>0.8584808700411867</v>
+        <v>0.0006075767508780888</v>
       </c>
       <c r="P3">
-        <v>0.8584808700411867</v>
+        <v>0.0006075767508780888</v>
       </c>
       <c r="Q3">
-        <v>37642.21709539273</v>
+        <v>32.281001500848</v>
       </c>
       <c r="R3">
-        <v>37642.21709539273</v>
+        <v>290.529013507632</v>
       </c>
       <c r="S3">
-        <v>0.4006042479157172</v>
+        <v>0.0002678145766212703</v>
       </c>
       <c r="T3">
-        <v>0.4006042479157172</v>
+        <v>0.0002678145766212703</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,123 +646,123 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>184.693097241481</v>
+        <v>198.977211</v>
       </c>
       <c r="H4">
-        <v>184.693097241481</v>
+        <v>596.9316329999999</v>
       </c>
       <c r="I4">
-        <v>0.4666431855336483</v>
+        <v>0.440791350614085</v>
       </c>
       <c r="J4">
-        <v>0.4666431855336483</v>
+        <v>0.4407913506140851</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>10.6112568066327</v>
+        <v>231.2048796666667</v>
       </c>
       <c r="N4">
-        <v>10.6112568066327</v>
+        <v>693.614639</v>
       </c>
       <c r="O4">
-        <v>0.04469643822593798</v>
+        <v>0.8658735673532548</v>
       </c>
       <c r="P4">
-        <v>0.04469643822593798</v>
+        <v>0.8658735673532548</v>
       </c>
       <c r="Q4">
-        <v>1959.82588524174</v>
+        <v>46004.50212566394</v>
       </c>
       <c r="R4">
-        <v>1959.82588524174</v>
+        <v>414040.5191309754</v>
       </c>
       <c r="S4">
-        <v>0.02085728831575962</v>
+        <v>0.3816695792146771</v>
       </c>
       <c r="T4">
-        <v>0.02085728831575962</v>
+        <v>0.3816695792146771</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>195.763767480216</v>
+        <v>198.977211</v>
       </c>
       <c r="H5">
-        <v>195.763767480216</v>
+        <v>596.9316329999999</v>
       </c>
       <c r="I5">
-        <v>0.4946141974629212</v>
+        <v>0.440791350614085</v>
       </c>
       <c r="J5">
-        <v>0.4946141974629212</v>
+        <v>0.4407913506140851</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>22.986405348307</v>
+        <v>11.99098133333333</v>
       </c>
       <c r="N5">
-        <v>22.986405348307</v>
+        <v>35.972944</v>
       </c>
       <c r="O5">
-        <v>0.09682269173287546</v>
+        <v>0.04490681078240458</v>
       </c>
       <c r="P5">
-        <v>0.09682269173287546</v>
+        <v>0.04490681078240458</v>
       </c>
       <c r="Q5">
-        <v>4499.905311811965</v>
+        <v>2385.932022859728</v>
       </c>
       <c r="R5">
-        <v>4499.905311811965</v>
+        <v>21473.38820573755</v>
       </c>
       <c r="S5">
-        <v>0.04788987796765602</v>
+        <v>0.01979453377654727</v>
       </c>
       <c r="T5">
-        <v>0.04788987796765602</v>
+        <v>0.01979453377654727</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>195.763767480216</v>
+        <v>196.7746736666667</v>
       </c>
       <c r="H6">
-        <v>195.763767480216</v>
+        <v>590.324021</v>
       </c>
       <c r="I6">
-        <v>0.4946141974629212</v>
+        <v>0.4359121013721307</v>
       </c>
       <c r="J6">
-        <v>0.4946141974629212</v>
+        <v>0.4359121013721308</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>203.809550316743</v>
+        <v>23.66111866666667</v>
       </c>
       <c r="N6">
-        <v>203.809550316743</v>
+        <v>70.983356</v>
       </c>
       <c r="O6">
-        <v>0.8584808700411867</v>
+        <v>0.08861204511346259</v>
       </c>
       <c r="P6">
-        <v>0.8584808700411867</v>
+        <v>0.08861204511346259</v>
       </c>
       <c r="Q6">
-        <v>39898.52541845426</v>
+        <v>4655.908904221608</v>
       </c>
       <c r="R6">
-        <v>39898.52541845426</v>
+        <v>41903.18013799448</v>
       </c>
       <c r="S6">
-        <v>0.424616826572692</v>
+        <v>0.03862706279229152</v>
       </c>
       <c r="T6">
-        <v>0.424616826572692</v>
+        <v>0.03862706279229153</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,185 +832,185 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>195.763767480216</v>
+        <v>196.7746736666667</v>
       </c>
       <c r="H7">
-        <v>195.763767480216</v>
+        <v>590.324021</v>
       </c>
       <c r="I7">
-        <v>0.4946141974629212</v>
+        <v>0.4359121013721307</v>
       </c>
       <c r="J7">
-        <v>0.4946141974629212</v>
+        <v>0.4359121013721308</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>10.6112568066327</v>
+        <v>0.1622346666666667</v>
       </c>
       <c r="N7">
-        <v>10.6112568066327</v>
+        <v>0.486704</v>
       </c>
       <c r="O7">
-        <v>0.04469643822593798</v>
+        <v>0.0006075767508780888</v>
       </c>
       <c r="P7">
-        <v>0.04469643822593798</v>
+        <v>0.0006075767508780888</v>
       </c>
       <c r="Q7">
-        <v>2077.299610166503</v>
+        <v>31.92367359075378</v>
       </c>
       <c r="R7">
-        <v>2077.299610166503</v>
+        <v>287.313062316784</v>
       </c>
       <c r="S7">
-        <v>0.02210749292257335</v>
+        <v>0.0002648500582201193</v>
       </c>
       <c r="T7">
-        <v>0.02210749292257335</v>
+        <v>0.0002648500582201193</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>15.3339728328425</v>
+        <v>196.7746736666667</v>
       </c>
       <c r="H8">
-        <v>15.3339728328425</v>
+        <v>590.324021</v>
       </c>
       <c r="I8">
-        <v>0.0387426170034305</v>
+        <v>0.4359121013721307</v>
       </c>
       <c r="J8">
-        <v>0.0387426170034305</v>
+        <v>0.4359121013721308</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>22.986405348307</v>
+        <v>231.2048796666667</v>
       </c>
       <c r="N8">
-        <v>22.986405348307</v>
+        <v>693.614639</v>
       </c>
       <c r="O8">
-        <v>0.09682269173287546</v>
+        <v>0.8658735673532548</v>
       </c>
       <c r="P8">
-        <v>0.09682269173287546</v>
+        <v>0.8658735673532548</v>
       </c>
       <c r="Q8">
-        <v>352.4729151356451</v>
+        <v>45495.26474654927</v>
       </c>
       <c r="R8">
-        <v>352.4729151356451</v>
+        <v>409457.3827189434</v>
       </c>
       <c r="S8">
-        <v>0.00375116446304801</v>
+        <v>0.3774447662675405</v>
       </c>
       <c r="T8">
-        <v>0.00375116446304801</v>
+        <v>0.3774447662675405</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>15.3339728328425</v>
+        <v>196.7746736666667</v>
       </c>
       <c r="H9">
-        <v>15.3339728328425</v>
+        <v>590.324021</v>
       </c>
       <c r="I9">
-        <v>0.0387426170034305</v>
+        <v>0.4359121013721307</v>
       </c>
       <c r="J9">
-        <v>0.0387426170034305</v>
+        <v>0.4359121013721308</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>203.809550316743</v>
+        <v>11.99098133333333</v>
       </c>
       <c r="N9">
-        <v>203.809550316743</v>
+        <v>35.972944</v>
       </c>
       <c r="O9">
-        <v>0.8584808700411867</v>
+        <v>0.04490681078240458</v>
       </c>
       <c r="P9">
-        <v>0.8584808700411867</v>
+        <v>0.04490681078240458</v>
       </c>
       <c r="Q9">
-        <v>3125.210107630784</v>
+        <v>2359.521438809758</v>
       </c>
       <c r="R9">
-        <v>3125.210107630784</v>
+        <v>21235.69294928782</v>
       </c>
       <c r="S9">
-        <v>0.03325979555277749</v>
+        <v>0.01957542225407864</v>
       </c>
       <c r="T9">
-        <v>0.03325979555277749</v>
+        <v>0.01957542225407864</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,61 +1018,495 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.158424</v>
+      </c>
+      <c r="H10">
+        <v>0.475272</v>
+      </c>
+      <c r="I10">
+        <v>0.0003509544061791369</v>
+      </c>
+      <c r="J10">
+        <v>0.0003509544061791369</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>23.66111866666667</v>
+      </c>
+      <c r="N10">
+        <v>70.983356</v>
+      </c>
+      <c r="O10">
+        <v>0.08861204511346259</v>
+      </c>
+      <c r="P10">
+        <v>0.08861204511346259</v>
+      </c>
+      <c r="Q10">
+        <v>3.748489063648</v>
+      </c>
+      <c r="R10">
+        <v>33.736401572832</v>
+      </c>
+      <c r="S10">
+        <v>3.109878767311415E-05</v>
+      </c>
+      <c r="T10">
+        <v>3.109878767311415E-05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.158424</v>
+      </c>
+      <c r="H11">
+        <v>0.475272</v>
+      </c>
+      <c r="I11">
+        <v>0.0003509544061791369</v>
+      </c>
+      <c r="J11">
+        <v>0.0003509544061791369</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.1622346666666667</v>
+      </c>
+      <c r="N11">
+        <v>0.486704</v>
+      </c>
+      <c r="O11">
+        <v>0.0006075767508780888</v>
+      </c>
+      <c r="P11">
+        <v>0.0006075767508780888</v>
+      </c>
+      <c r="Q11">
+        <v>0.025701864832</v>
+      </c>
+      <c r="R11">
+        <v>0.231316783488</v>
+      </c>
+      <c r="S11">
+        <v>2.13231737812669E-07</v>
+      </c>
+      <c r="T11">
+        <v>2.13231737812669E-07</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.158424</v>
+      </c>
+      <c r="H12">
+        <v>0.475272</v>
+      </c>
+      <c r="I12">
+        <v>0.0003509544061791369</v>
+      </c>
+      <c r="J12">
+        <v>0.0003509544061791369</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>231.2048796666667</v>
+      </c>
+      <c r="N12">
+        <v>693.614639</v>
+      </c>
+      <c r="O12">
+        <v>0.8658735673532548</v>
+      </c>
+      <c r="P12">
+        <v>0.8658735673532548</v>
+      </c>
+      <c r="Q12">
+        <v>36.628401856312</v>
+      </c>
+      <c r="R12">
+        <v>329.655616706808</v>
+      </c>
+      <c r="S12">
+        <v>0.0003038821436566724</v>
+      </c>
+      <c r="T12">
+        <v>0.0003038821436566724</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.158424</v>
+      </c>
+      <c r="H13">
+        <v>0.475272</v>
+      </c>
+      <c r="I13">
+        <v>0.0003509544061791369</v>
+      </c>
+      <c r="J13">
+        <v>0.0003509544061791369</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>11.99098133333333</v>
+      </c>
+      <c r="N13">
+        <v>35.972944</v>
+      </c>
+      <c r="O13">
+        <v>0.04490681078240458</v>
+      </c>
+      <c r="P13">
+        <v>0.04490681078240458</v>
+      </c>
+      <c r="Q13">
+        <v>1.899659226752</v>
+      </c>
+      <c r="R13">
+        <v>17.096933040768</v>
+      </c>
+      <c r="S13">
+        <v>1.576024311153766E-05</v>
+      </c>
+      <c r="T13">
+        <v>1.576024311153766E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>55.49875533333334</v>
+      </c>
+      <c r="H14">
+        <v>166.496266</v>
+      </c>
+      <c r="I14">
+        <v>0.122945593607605</v>
+      </c>
+      <c r="J14">
+        <v>0.122945593607605</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>23.66111866666667</v>
+      </c>
+      <c r="N14">
+        <v>70.983356</v>
+      </c>
+      <c r="O14">
+        <v>0.08861204511346259</v>
+      </c>
+      <c r="P14">
+        <v>0.08861204511346259</v>
+      </c>
+      <c r="Q14">
+        <v>1313.1626357943</v>
+      </c>
+      <c r="R14">
+        <v>11818.4637221487</v>
+      </c>
+      <c r="S14">
+        <v>0.01089446048725853</v>
+      </c>
+      <c r="T14">
+        <v>0.01089446048725853</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>55.49875533333334</v>
+      </c>
+      <c r="H15">
+        <v>166.496266</v>
+      </c>
+      <c r="I15">
+        <v>0.122945593607605</v>
+      </c>
+      <c r="J15">
+        <v>0.122945593607605</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.1622346666666667</v>
+      </c>
+      <c r="N15">
+        <v>0.486704</v>
+      </c>
+      <c r="O15">
+        <v>0.0006075767508780888</v>
+      </c>
+      <c r="P15">
+        <v>0.0006075767508780888</v>
+      </c>
+      <c r="Q15">
+        <v>9.003822071918224</v>
+      </c>
+      <c r="R15">
+        <v>81.03439864726401</v>
+      </c>
+      <c r="S15">
+        <v>7.469888429888655E-05</v>
+      </c>
+      <c r="T15">
+        <v>7.469888429888655E-05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>15.3339728328425</v>
-      </c>
-      <c r="H10">
-        <v>15.3339728328425</v>
-      </c>
-      <c r="I10">
-        <v>0.0387426170034305</v>
-      </c>
-      <c r="J10">
-        <v>0.0387426170034305</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>10.6112568066327</v>
-      </c>
-      <c r="N10">
-        <v>10.6112568066327</v>
-      </c>
-      <c r="O10">
-        <v>0.04469643822593798</v>
-      </c>
-      <c r="P10">
-        <v>0.04469643822593798</v>
-      </c>
-      <c r="Q10">
-        <v>162.7127235952209</v>
-      </c>
-      <c r="R10">
-        <v>162.7127235952209</v>
-      </c>
-      <c r="S10">
-        <v>0.001731656987605006</v>
-      </c>
-      <c r="T10">
-        <v>0.001731656987605006</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>55.49875533333334</v>
+      </c>
+      <c r="H16">
+        <v>166.496266</v>
+      </c>
+      <c r="I16">
+        <v>0.122945593607605</v>
+      </c>
+      <c r="J16">
+        <v>0.122945593607605</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>231.2048796666667</v>
+      </c>
+      <c r="N16">
+        <v>693.614639</v>
+      </c>
+      <c r="O16">
+        <v>0.8658735673532548</v>
+      </c>
+      <c r="P16">
+        <v>0.8658735673532548</v>
+      </c>
+      <c r="Q16">
+        <v>12831.58304849311</v>
+      </c>
+      <c r="R16">
+        <v>115484.247436438</v>
+      </c>
+      <c r="S16">
+        <v>0.1064553397273804</v>
+      </c>
+      <c r="T16">
+        <v>0.1064553397273804</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>55.49875533333334</v>
+      </c>
+      <c r="H17">
+        <v>166.496266</v>
+      </c>
+      <c r="I17">
+        <v>0.122945593607605</v>
+      </c>
+      <c r="J17">
+        <v>0.122945593607605</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>11.99098133333333</v>
+      </c>
+      <c r="N17">
+        <v>35.972944</v>
+      </c>
+      <c r="O17">
+        <v>0.04490681078240458</v>
+      </c>
+      <c r="P17">
+        <v>0.04490681078240458</v>
+      </c>
+      <c r="Q17">
+        <v>665.4845392252338</v>
+      </c>
+      <c r="R17">
+        <v>5989.360853027104</v>
+      </c>
+      <c r="S17">
+        <v>0.005521094508667126</v>
+      </c>
+      <c r="T17">
+        <v>0.005521094508667126</v>
       </c>
     </row>
   </sheetData>
